--- a/Fecha de pagos tarjeta grafica.xlsx
+++ b/Fecha de pagos tarjeta grafica.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -113,7 +113,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,9 +190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -209,7 +206,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -516,7 +516,7 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -527,7 +527,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -538,7 +538,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
@@ -549,7 +549,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -560,81 +560,81 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -650,7 +650,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,40 +665,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -706,26 +706,26 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>44464</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>1000</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <f>29500-F35</f>
-        <v>27500</v>
-      </c>
-      <c r="H3" s="15">
+        <v>26500</v>
+      </c>
+      <c r="H3" s="14">
         <v>29500</v>
       </c>
     </row>
@@ -733,19 +733,19 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>44467</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>500</v>
       </c>
     </row>
@@ -753,19 +753,19 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>44468</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>500</v>
       </c>
     </row>
@@ -773,296 +773,306 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44478</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>20</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>20</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>20</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>20</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <f>SUM(F3:F22)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -1115,16 +1125,16 @@
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1132,17 +1142,17 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44464</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>29500-C35</f>
         <v>13100</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>29500</v>
       </c>
     </row>
@@ -1150,10 +1160,10 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>44467</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>500</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1164,10 +1174,10 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44468</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>500</v>
       </c>
     </row>
@@ -1175,8 +1185,8 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -1184,8 +1194,8 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1193,8 +1203,8 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1202,8 +1212,8 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1211,8 +1221,8 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -1220,8 +1230,8 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1229,8 +1239,8 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1238,8 +1248,8 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1247,8 +1257,8 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -1256,144 +1266,144 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <f>SUM(C3:C34)</f>
         <v>16400</v>
       </c>

--- a/Fecha de pagos tarjeta grafica.xlsx
+++ b/Fecha de pagos tarjeta grafica.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C48236-F550-4989-AAA8-D5AD01E28A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
     <sheet name="DOC" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja de probabilidad" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -109,11 +117,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,9 +198,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -209,7 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -491,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -516,7 +524,7 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -527,7 +535,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -538,7 +546,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
@@ -549,7 +557,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -560,85 +568,85 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" location="Inicio!A1" display="Inicio"/>
+    <hyperlink ref="D1" location="Inicio!A1" display="Inicio" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -646,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,40 +673,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -706,26 +714,26 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>44464</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>1000</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <f>29500-F35</f>
-        <v>27500</v>
-      </c>
-      <c r="H3" s="15">
+        <v>25600</v>
+      </c>
+      <c r="H3" s="14">
         <v>29500</v>
       </c>
     </row>
@@ -733,19 +741,19 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>44467</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>500</v>
       </c>
     </row>
@@ -753,19 +761,19 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>44468</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>500</v>
       </c>
     </row>
@@ -773,296 +781,306 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44485</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>20</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>20</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>20</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>20</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <f>SUM(F3:F22)</f>
-        <v>2000</v>
+        <v>3900</v>
       </c>
     </row>
   </sheetData>
@@ -1070,20 +1088,20 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Inicio!A1" display="Inicio"/>
+    <hyperlink ref="A1" location="Inicio!A1" display="Inicio" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E22 E23:E34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$C$3:$C$6</xm:f>
           </x14:formula1>
@@ -1096,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1115,16 +1133,16 @@
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1132,17 +1150,17 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44464</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>29500-C35</f>
         <v>13100</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>29500</v>
       </c>
     </row>
@@ -1150,10 +1168,10 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>44467</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>500</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1164,10 +1182,10 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44468</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>500</v>
       </c>
     </row>
@@ -1175,8 +1193,8 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -1184,8 +1202,8 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1193,8 +1211,8 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1202,8 +1220,8 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1211,8 +1229,8 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -1220,8 +1238,8 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1229,8 +1247,8 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1238,8 +1256,8 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
         <v>1900</v>
       </c>
     </row>
@@ -1247,8 +1265,8 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -1256,151 +1274,151 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <f>SUM(C3:C34)</f>
         <v>16400</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fecha de pagos tarjeta grafica.xlsx
+++ b/Fecha de pagos tarjeta grafica.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C48236-F550-4989-AAA8-D5AD01E28A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
     <sheet name="DOC" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja de probabilidad" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -117,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -499,7 +498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -646,7 +645,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" location="Inicio!A1" display="Inicio" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D1" location="Inicio!A1" display="Inicio"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -654,11 +653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +730,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F35</f>
-        <v>25600</v>
+        <v>23700</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -801,11 +800,21 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44492</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1080,7 +1089,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F35" s="13">
         <f>SUM(F3:F22)</f>
-        <v>3900</v>
+        <v>5800</v>
       </c>
     </row>
   </sheetData>
@@ -1088,20 +1097,20 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Inicio!A1" display="Inicio" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="Inicio!A1" display="Inicio"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E22 E23:E34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$C$3:$C$6</xm:f>
           </x14:formula1>
@@ -1114,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1418,7 +1427,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fecha de pagos tarjeta grafica.xlsx
+++ b/Fecha de pagos tarjeta grafica.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0135C679-B0CE-4A10-9F9B-EB3B4EEAEC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forma de pagos" sheetId="2" r:id="rId1"/>
     <sheet name="DOC" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja de probabilidad" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -498,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -645,7 +646,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" location="Inicio!A1" display="Inicio"/>
+    <hyperlink ref="D1" location="Inicio!A1" display="Inicio" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -653,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +731,7 @@
       </c>
       <c r="G3" s="13">
         <f>29500-F35</f>
-        <v>23700</v>
+        <v>23020</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -820,11 +821,21 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44499</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>680</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1089,7 +1100,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F35" s="13">
         <f>SUM(F3:F22)</f>
-        <v>5800</v>
+        <v>6480</v>
       </c>
     </row>
   </sheetData>
@@ -1097,20 +1108,20 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Inicio!A1" display="Inicio"/>
+    <hyperlink ref="A1" location="Inicio!A1" display="Inicio" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E22 E23:E34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$C$3:$C$6</xm:f>
           </x14:formula1>
@@ -1123,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1427,7 +1438,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fecha de pagos tarjeta grafica.xlsx
+++ b/Fecha de pagos tarjeta grafica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0135C679-B0CE-4A10-9F9B-EB3B4EEAEC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7AD68-4800-4235-9763-E80456855809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fecha de pagos tarjeta grafica.xlsx
+++ b/Fecha de pagos tarjeta grafica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7AD68-4800-4235-9763-E80456855809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A584D61-0432-45C5-AE58-BA4AA3CD318D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fecha de pagos tarjeta grafica.xlsx
+++ b/Fecha de pagos tarjeta grafica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D28E02F-A16E-4DE4-B19F-27A1188DEBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2792A58A-B322-4A02-88C3-2C163170FE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Lenkabits</t>
   </si>
@@ -192,7 +192,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,6 +215,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,13 +679,13 @@
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -730,8 +733,8 @@
         <v>1000</v>
       </c>
       <c r="G3" s="13">
-        <f>29500-F35</f>
-        <v>23020</v>
+        <f>29500-F36</f>
+        <v>20400</v>
       </c>
       <c r="H3" s="14">
         <v>29500</v>
@@ -758,7 +761,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -778,14 +781,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>44485</v>
+        <v>44478</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
@@ -794,18 +797,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="11">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10">
-        <v>44492</v>
+        <v>44485</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -818,14 +821,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10">
-        <v>44499</v>
+        <v>44492</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
@@ -834,31 +837,51 @@
         <v>3</v>
       </c>
       <c r="F8" s="11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44499</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="11"/>
-    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44506</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1620</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
@@ -868,7 +891,7 @@
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
@@ -878,7 +901,7 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
@@ -888,7 +911,7 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
@@ -898,7 +921,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
@@ -908,7 +931,7 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="B16" s="4"/>
@@ -918,7 +941,7 @@
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
@@ -928,7 +951,7 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
@@ -938,7 +961,7 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
       <c r="B19" s="4"/>
@@ -948,17 +971,17 @@
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
       <c r="B21" s="4"/>
@@ -968,7 +991,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
       <c r="B22" s="4"/>
@@ -978,8 +1001,8 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>20</v>
+      <c r="A23" s="16">
+        <v>21</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -988,8 +1011,8 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>20</v>
+      <c r="A24" s="16">
+        <v>22</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -998,8 +1021,8 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>20</v>
+      <c r="A25" s="16">
+        <v>23</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1008,8 +1031,8 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>20</v>
+      <c r="A26" s="16">
+        <v>24</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1018,8 +1041,8 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>20</v>
+      <c r="A27" s="16">
+        <v>25</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1028,8 +1051,8 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>20</v>
+      <c r="A28" s="16">
+        <v>26</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1038,8 +1061,8 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>20</v>
+      <c r="A29" s="16">
+        <v>27</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1048,8 +1071,8 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>20</v>
+      <c r="A30" s="16">
+        <v>28</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1058,8 +1081,8 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>20</v>
+      <c r="A31" s="16">
+        <v>29</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1068,8 +1091,8 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>20</v>
+      <c r="A32" s="16">
+        <v>30</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1078,8 +1101,8 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>20</v>
+      <c r="A33" s="16">
+        <v>31</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1088,8 +1111,8 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>20</v>
+      <c r="A34" s="16">
+        <v>32</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1098,9 +1121,19 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="13">
-        <f>SUM(F3:F22)</f>
-        <v>6480</v>
+      <c r="A35" s="16">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="13">
+        <f>SUM(F3:F23)</f>
+        <v>9100</v>
       </c>
     </row>
   </sheetData>
@@ -1119,13 +1152,13 @@
           <x14:formula1>
             <xm:f>'Forma de pagos'!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E22 E23:E34</xm:sqref>
+          <xm:sqref>E3:E35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'Forma de pagos'!$C$3:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D40</xm:sqref>
+          <xm:sqref>D3:D41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1137,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1178,7 +1211,7 @@
       </c>
       <c r="D3" s="15">
         <f>29500-C35</f>
-        <v>13100</v>
+        <v>8000</v>
       </c>
       <c r="E3" s="14">
         <v>29500</v>
@@ -1213,7 +1246,9 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10">
+        <v>44478</v>
+      </c>
       <c r="C6" s="11">
         <v>1000</v>
       </c>
@@ -1222,7 +1257,9 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10">
+        <v>44485</v>
+      </c>
       <c r="C7" s="11">
         <v>1900</v>
       </c>
@@ -1231,7 +1268,9 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10">
+        <v>44492</v>
+      </c>
       <c r="C8" s="11">
         <v>1900</v>
       </c>
@@ -1240,25 +1279,31 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10">
+        <v>44499</v>
+      </c>
       <c r="C9" s="11">
-        <v>1900</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10">
+        <v>44506</v>
+      </c>
       <c r="C10" s="11">
-        <v>1000</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <v>44513</v>
+      </c>
       <c r="C11" s="11">
         <v>1900</v>
       </c>
@@ -1267,7 +1312,9 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <v>44520</v>
+      </c>
       <c r="C12" s="11">
         <v>1900</v>
       </c>
@@ -1276,7 +1323,9 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10">
+        <v>44527</v>
+      </c>
       <c r="C13" s="11">
         <v>1900</v>
       </c>
@@ -1285,7 +1334,9 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10">
+        <v>44534</v>
+      </c>
       <c r="C14" s="11">
         <v>1000</v>
       </c>
@@ -1294,22 +1345,34 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10">
+        <v>44541</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="10">
+        <v>44548</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="10">
+        <v>44555</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1900</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1433,7 +1496,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" s="13">
         <f>SUM(C3:C34)</f>
-        <v>16400</v>
+        <v>21500</v>
       </c>
     </row>
   </sheetData>
